--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang10/01.TraBH/TBH_NgocHoan_071024.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang10/01.TraBH/TBH_NgocHoan_071024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2024\Thang10\01.TraBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2024\Thang10\01.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -643,6 +643,24 @@
     <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,24 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1092,8 +1092,8 @@
   </sheetPr>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1113,78 +1113,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="45" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="48" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="48" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="51" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -1192,12 +1192,12 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -1205,12 +1205,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1221,12 +1221,12 @@
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1320,26 +1320,26 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1384,19 +1384,19 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
@@ -1410,19 +1410,12 @@
       <c r="I21" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
     </row>
     <row r="62" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G20:I20"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
@@ -1432,6 +1425,13 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G20:I20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
